--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_8.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_8.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9944937567442828</v>
+        <v>0.9444037497803831</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8174129625504806</v>
+        <v>0.7060582601800429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.789079487595455</v>
+        <v>0.7739006848842322</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9882810345477526</v>
+        <v>0.9372908669512974</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02291988455117798</v>
+        <v>0.1784799298632729</v>
       </c>
       <c r="G2" t="n">
-        <v>1.220960360160938</v>
+        <v>1.965589767653312</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7544504429970638</v>
+        <v>0.808744140177558</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03581915375629852</v>
+        <v>0.1436813863167927</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2649979789654806</v>
+        <v>1.164799102436334</v>
       </c>
       <c r="K2" t="n">
-        <v>0.151393145654544</v>
+        <v>0.4224688507609441</v>
       </c>
       <c r="L2" t="n">
-        <v>1.352399568365904</v>
+        <v>0.9242944677860536</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1537774363609794</v>
+        <v>0.4291223128465144</v>
       </c>
       <c r="N2" t="n">
-        <v>137.5515008483648</v>
+        <v>37.44655824364962</v>
       </c>
       <c r="O2" t="n">
-        <v>278.8866733915812</v>
+        <v>74.41114183187544</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9944800340099221</v>
+        <v>0.9443248429414529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8171154353295369</v>
+        <v>0.7058390104731654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7880450706016192</v>
+        <v>0.7738415243620178</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9884767945606118</v>
+        <v>0.9374717056822479</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02297700579930759</v>
+        <v>0.1787332434774528</v>
       </c>
       <c r="G3" t="n">
-        <v>1.222949926057375</v>
+        <v>1.967055891452754</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7581504926050707</v>
+        <v>0.8089557539351945</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03522081100765662</v>
+        <v>0.1432670422125204</v>
       </c>
       <c r="J3" t="n">
-        <v>0.263909148963475</v>
+        <v>1.165354476929675</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1515816802892341</v>
+        <v>0.422768545988763</v>
       </c>
       <c r="L3" t="n">
-        <v>1.353277823364984</v>
+        <v>0.9241870201755955</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1539689402277004</v>
+        <v>0.4294267279745862</v>
       </c>
       <c r="N3" t="n">
-        <v>137.5465226219808</v>
+        <v>37.44372168917126</v>
       </c>
       <c r="O3" t="n">
-        <v>278.8816951651972</v>
+        <v>74.40830527739708</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9944147139068781</v>
+        <v>0.9442442726179155</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8169744477230944</v>
+        <v>0.705617649462232</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7876003739788894</v>
+        <v>0.7737810503215965</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9885895317451672</v>
+        <v>0.9376560480020478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02324890247206863</v>
+        <v>0.1789918973549573</v>
       </c>
       <c r="G4" t="n">
-        <v>1.223892710830845</v>
+        <v>1.968536133552139</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7597411466395836</v>
+        <v>0.8091720660712955</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03487622849616296</v>
+        <v>0.1428446705614067</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2647012107148178</v>
+        <v>1.165882015577356</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1524759078414313</v>
+        <v>0.4230743402227997</v>
       </c>
       <c r="L4" t="n">
-        <v>1.357458309959803</v>
+        <v>0.9240773073946084</v>
       </c>
       <c r="M4" t="n">
-        <v>0.154877250969945</v>
+        <v>0.4297373381621269</v>
       </c>
       <c r="N4" t="n">
-        <v>137.5229947071308</v>
+        <v>37.4408294806787</v>
       </c>
       <c r="O4" t="n">
-        <v>278.8581672503472</v>
+        <v>74.40541306890452</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9943591050952377</v>
+        <v>0.9441619338757586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.816830893538586</v>
+        <v>0.7053941515537481</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7868736241654282</v>
+        <v>0.7737193414518762</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9885003360043954</v>
+        <v>0.9378436630042327</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02348037563510064</v>
+        <v>0.1792562283641016</v>
       </c>
       <c r="G5" t="n">
-        <v>1.224852658323658</v>
+        <v>1.970030665095285</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7623406885829589</v>
+        <v>0.8093927951201993</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0351488563118289</v>
+        <v>0.1424148004245189</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2653687520049252</v>
+        <v>1.166388098290735</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1532330761784173</v>
+        <v>0.4233866180739557</v>
       </c>
       <c r="L5" t="n">
-        <v>1.361017273904785</v>
+        <v>0.9239651865542245</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1556463439513479</v>
+        <v>0.4300545340772752</v>
       </c>
       <c r="N5" t="n">
-        <v>137.5031805721249</v>
+        <v>37.43787810660988</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8383531153413</v>
+        <v>74.40246169483569</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9942526945760052</v>
+        <v>0.9440779417681251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8166783670088295</v>
+        <v>0.705168520104702</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7862804402234718</v>
+        <v>0.7736563619488359</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9882697478061794</v>
+        <v>0.9380348036961449</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02392331226222972</v>
+        <v>0.1795258671512553</v>
       </c>
       <c r="G6" t="n">
-        <v>1.22587260393046</v>
+        <v>1.971539463633994</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7644624731485561</v>
+        <v>0.8096180691508127</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0358536518127579</v>
+        <v>0.1419768521024753</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2678669644129675</v>
+        <v>1.166865141612618</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1546716272049587</v>
+        <v>0.4237049293450045</v>
       </c>
       <c r="L6" t="n">
-        <v>1.367827547135668</v>
+        <v>0.9238508143225533</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1571075507185339</v>
+        <v>0.4303778584326486</v>
       </c>
       <c r="N6" t="n">
-        <v>137.4658037739698</v>
+        <v>37.43487194948789</v>
       </c>
       <c r="O6" t="n">
-        <v>278.8009763171862</v>
+        <v>74.39945553771371</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9941652599951822</v>
+        <v>0.9439921549628246</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8164720889644357</v>
+        <v>0.7049406958887803</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7856416959457694</v>
+        <v>0.7735922178453234</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9881984248963759</v>
+        <v>0.9382294383900176</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02428726103913161</v>
+        <v>0.1798012674333379</v>
       </c>
       <c r="G7" t="n">
-        <v>1.227251986163144</v>
+        <v>1.973062925214896</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7667472243933762</v>
+        <v>0.8098475088897883</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03607165111337965</v>
+        <v>0.1415308981994089</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2694888516291013</v>
+        <v>1.167314154432789</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1558437070886458</v>
+        <v>0.4240297954546802</v>
       </c>
       <c r="L7" t="n">
-        <v>1.373423360308337</v>
+        <v>0.9237339982472506</v>
       </c>
       <c r="M7" t="n">
-        <v>0.158298089688739</v>
+        <v>0.4307078408588046</v>
       </c>
       <c r="N7" t="n">
-        <v>137.4356066063374</v>
+        <v>37.43180621568155</v>
       </c>
       <c r="O7" t="n">
-        <v>278.7707791495538</v>
+        <v>74.39638980390737</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9940872038494328</v>
+        <v>0.9439045360974452</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8161760461719785</v>
+        <v>0.7047106747679679</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7848443860454499</v>
+        <v>0.7735266116127542</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9882075781744546</v>
+        <v>0.9384276168809862</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02461217182966557</v>
+        <v>0.1800825491544226</v>
       </c>
       <c r="G8" t="n">
-        <v>1.229231625679458</v>
+        <v>1.974601077508918</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7695991556761345</v>
+        <v>0.8100821785796205</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03604367401282298</v>
+        <v>0.1410768246229425</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2701484254454893</v>
+        <v>1.16773460083967</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1568826689907638</v>
+        <v>0.4243613426720471</v>
       </c>
       <c r="L8" t="n">
-        <v>1.378418953636299</v>
+        <v>0.9236146874518403</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1593534142022345</v>
+        <v>0.4310446096134194</v>
       </c>
       <c r="N8" t="n">
-        <v>137.4090283371763</v>
+        <v>37.4286798536125</v>
       </c>
       <c r="O8" t="n">
-        <v>278.7442008803927</v>
+        <v>74.39326344183831</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9936228608578884</v>
+        <v>0.9438151188225183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8151623669235027</v>
+        <v>0.7044784791079797</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7829911529190058</v>
+        <v>0.7734596270434542</v>
       </c>
       <c r="E9" t="n">
-        <v>0.987754107539093</v>
+        <v>0.9386295312638138</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02654501192845637</v>
+        <v>0.1803696042866384</v>
       </c>
       <c r="G9" t="n">
-        <v>1.236010103481578</v>
+        <v>1.976153770956422</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7762280631127945</v>
+        <v>0.8103217785000181</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03742971226664069</v>
+        <v>0.140614191238752</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2766568978173711</v>
+        <v>1.16812423293476</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1629264003421679</v>
+        <v>0.4246994281684853</v>
       </c>
       <c r="L9" t="n">
-        <v>1.408136905095141</v>
+        <v>0.9234929277583228</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1654923282809084</v>
+        <v>0.4313880196184651</v>
       </c>
       <c r="N9" t="n">
-        <v>137.2578268471585</v>
+        <v>37.42549435240064</v>
       </c>
       <c r="O9" t="n">
-        <v>278.5929993903749</v>
+        <v>74.39007794062647</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9935401403816185</v>
+        <v>0.9437237455508775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8148869683255459</v>
+        <v>0.7042440804809347</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7823753567192306</v>
+        <v>0.7733912316118505</v>
       </c>
       <c r="E10" t="n">
-        <v>0.987727443433661</v>
+        <v>0.9388348600247292</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02688933811930422</v>
+        <v>0.1806629387300482</v>
       </c>
       <c r="G10" t="n">
-        <v>1.23785169517421</v>
+        <v>1.977721195654779</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7784307304134752</v>
+        <v>0.8105664249930691</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03751121141399583</v>
+        <v>0.1401437347105757</v>
       </c>
       <c r="J10" t="n">
-        <v>0.278051386660533</v>
+        <v>1.168487903954458</v>
       </c>
       <c r="K10" t="n">
-        <v>0.163979688130281</v>
+        <v>0.4250446314565662</v>
       </c>
       <c r="L10" t="n">
-        <v>1.413431015576414</v>
+        <v>0.9233685045799183</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1665622042987827</v>
+        <v>0.4317386595132566</v>
       </c>
       <c r="N10" t="n">
-        <v>137.2320508467699</v>
+        <v>37.42224440151804</v>
       </c>
       <c r="O10" t="n">
-        <v>278.5672233899863</v>
+        <v>74.38682798974386</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9934196864021528</v>
+        <v>0.9436304764536873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8146306148673288</v>
+        <v>0.7040074365040695</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7816129537710649</v>
+        <v>0.773321428825459</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9875060709668743</v>
+        <v>0.9390439193475801</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02739073102457005</v>
+        <v>0.1809623593179327</v>
       </c>
       <c r="G11" t="n">
-        <v>1.239565931929707</v>
+        <v>1.979303635017721</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7811578015524012</v>
+        <v>0.8108161055125936</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03818783892497863</v>
+        <v>0.1396647305867851</v>
       </c>
       <c r="J11" t="n">
-        <v>0.279437898887504</v>
+        <v>1.168832204149443</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1655014532400548</v>
+        <v>0.4253967081653697</v>
       </c>
       <c r="L11" t="n">
-        <v>1.421140070262219</v>
+        <v>0.9232414998518295</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1681079356878285</v>
+        <v>0.4320962810782761</v>
       </c>
       <c r="N11" t="n">
-        <v>137.1951012131876</v>
+        <v>37.41893245782467</v>
       </c>
       <c r="O11" t="n">
-        <v>278.530273756404</v>
+        <v>74.38351604605049</v>
       </c>
     </row>
   </sheetData>
